--- a/example_2_folder/example_2_015/main_results.xlsx
+++ b/example_2_folder/example_2_015/main_results.xlsx
@@ -1,15 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simva\OneDrive\Documents\1 Master 2\Mémoire\code\memoire_partage_elec\example_2_folder\example_2_015\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D99408-B410-4444-B99C-894396F6B117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -151,8 +170,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,13 +208,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -233,7 +260,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -267,6 +294,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -301,9 +329,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -476,64 +505,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BX33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:68">
+    <row r="1" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Q1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="S1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" t="s">
+      <c r="U1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" t="s">
+      <c r="W1" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Y1" t="s">
         <v>9</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AC1" t="s">
         <v>10</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AE1" t="s">
         <v>11</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AG1" t="s">
         <v>12</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AK1" t="s">
         <v>13</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AO1" t="s">
         <v>14</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AQ1" t="s">
         <v>15</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AS1" t="s">
         <v>20</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BR1" t="s">
         <v>42</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BV1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:68">
+    <row r="2" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -552,26 +583,11 @@
       <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" t="s">
-        <v>1</v>
-      </c>
       <c r="Q2" t="s">
         <v>1</v>
       </c>
-      <c r="R2" t="s">
-        <v>2</v>
-      </c>
       <c r="S2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U2" t="s">
         <v>1</v>
@@ -591,17 +607,17 @@
       <c r="AC2" t="s">
         <v>1</v>
       </c>
-      <c r="AD2" t="s">
-        <v>2</v>
-      </c>
       <c r="AE2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG2" t="s">
         <v>1</v>
       </c>
+      <c r="AH2" t="s">
+        <v>2</v>
+      </c>
       <c r="AI2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK2" t="s">
         <v>1</v>
@@ -612,89 +628,104 @@
       <c r="AM2" t="s">
         <v>3</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV2" t="s">
         <v>21</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AW2" t="s">
         <v>22</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AX2" t="s">
         <v>23</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AY2" t="s">
         <v>24</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AZ2" t="s">
         <v>25</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="BA2" t="s">
         <v>26</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="BB2" t="s">
         <v>27</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="BC2" t="s">
         <v>28</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="BD2" t="s">
         <v>29</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="BE2" t="s">
         <v>30</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="BF2" t="s">
         <v>31</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BG2" t="s">
         <v>32</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BH2" t="s">
         <v>33</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BI2" t="s">
         <v>34</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BJ2" t="s">
         <v>35</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BK2" t="s">
         <v>36</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BL2" t="s">
         <v>37</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BM2" t="s">
         <v>38</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BN2" t="s">
         <v>39</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BO2" t="s">
         <v>40</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BP2" t="s">
         <v>41</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BR2" t="s">
         <v>1</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BS2" t="s">
         <v>2</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BT2" t="s">
         <v>3</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BV2" t="s">
         <v>1</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BW2" t="s">
         <v>2</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BX2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:68">
+    <row r="3" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1891.974722492479</v>
       </c>
@@ -705,159 +736,183 @@
         <v>1890.029628918277</v>
       </c>
       <c r="E3">
-        <v>1574.632991852841</v>
+        <v>1574.6329918528411</v>
       </c>
       <c r="F3">
-        <v>1545.184942057031</v>
+        <v>1545.1849420570311</v>
       </c>
       <c r="G3">
         <v>1572.803680378559</v>
       </c>
       <c r="I3">
+        <f>A3-E3</f>
+        <v>317.34173063963794</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:K3" si="0">B3-F3</f>
+        <v>338.84367179318792</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="0"/>
+        <v>317.22594853971805</v>
+      </c>
+      <c r="M3">
+        <f>I3/A3</f>
+        <v>0.1677304283545466</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:O3" si="1">J3/B3</f>
+        <v>0.1798505974390292</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="1"/>
+        <v>0.16784178601542685</v>
+      </c>
+      <c r="Q3">
         <v>2201.803857509989</v>
       </c>
-      <c r="K3">
-        <v>5632.98489444319</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="O3">
+      <c r="S3">
+        <v>5632.9848944431897</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="W3">
         <v>0.5666727265431617</v>
       </c>
-      <c r="Q3">
-        <v>0.2912243700618656</v>
-      </c>
-      <c r="R3">
-        <v>0.3161107618284582</v>
-      </c>
-      <c r="S3">
-        <v>0.2944310831313661</v>
-      </c>
-      <c r="U3">
-        <v>23852541.55653881</v>
-      </c>
-      <c r="W3">
-        <v>55045096.43774974</v>
-      </c>
       <c r="Y3">
-        <v>5716711.737826318</v>
+        <v>0.29122437006186558</v>
       </c>
       <c r="Z3">
+        <v>0.31611076182845821</v>
+      </c>
+      <c r="AA3">
+        <v>0.29443108313136612</v>
+      </c>
+      <c r="AC3">
+        <v>23852541.556538809</v>
+      </c>
+      <c r="AE3">
+        <v>55045096.437749743</v>
+      </c>
+      <c r="AG3">
+        <v>5716711.7378263175</v>
+      </c>
+      <c r="AH3">
         <v>5691514.915327047</v>
       </c>
-      <c r="AA3">
-        <v>5711299.483203325</v>
-      </c>
-      <c r="AC3">
+      <c r="AI3">
+        <v>5711299.4832033254</v>
+      </c>
+      <c r="AK3">
         <v>1664845.774673742</v>
       </c>
-      <c r="AD3">
+      <c r="AL3">
         <v>1799149.115842066</v>
       </c>
-      <c r="AE3">
+      <c r="AM3">
         <v>1681584.092927166</v>
       </c>
-      <c r="AG3">
-        <v>5168.508393521503</v>
-      </c>
-      <c r="AI3" t="s">
+      <c r="AO3">
+        <v>5168.5083935215034</v>
+      </c>
+      <c r="AQ3" t="s">
         <v>16</v>
       </c>
-      <c r="AK3">
-        <v>693332.8979622212</v>
-      </c>
-      <c r="AL3">
-        <v>394634.41754003</v>
-      </c>
-      <c r="AM3">
+      <c r="AS3">
+        <v>693332.89796222118</v>
+      </c>
+      <c r="AT3">
+        <v>394634.41754002997</v>
+      </c>
+      <c r="AU3">
         <v>157919.7918315205</v>
       </c>
-      <c r="AN3">
-        <v>37881.38886477235</v>
-      </c>
-      <c r="AO3">
+      <c r="AV3">
+        <v>37881.388864772351</v>
+      </c>
+      <c r="AW3">
         <v>365274.8458828929</v>
       </c>
-      <c r="AP3">
-        <v>31498.91299440634</v>
-      </c>
-      <c r="AQ3">
+      <c r="AX3">
+        <v>31498.912994406339</v>
+      </c>
+      <c r="AY3">
         <v>469924.2627903804</v>
       </c>
-      <c r="AR3">
-        <v>339105.5832785543</v>
-      </c>
-      <c r="AS3">
-        <v>546881.1023106404</v>
-      </c>
-      <c r="AT3">
-        <v>290375.3035087502</v>
-      </c>
-      <c r="AU3">
+      <c r="AZ3">
+        <v>339105.58327855432</v>
+      </c>
+      <c r="BA3">
+        <v>546881.10231064039</v>
+      </c>
+      <c r="BB3">
+        <v>290375.30350875022</v>
+      </c>
+      <c r="BC3">
         <v>25763.34597591378</v>
       </c>
-      <c r="AV3">
-        <v>76246.04123928708</v>
-      </c>
-      <c r="AW3">
-        <v>319396.7965693874</v>
-      </c>
-      <c r="AX3">
-        <v>4487.580760787329</v>
-      </c>
-      <c r="AY3">
-        <v>783122.8819502153</v>
-      </c>
-      <c r="AZ3">
-        <v>358863.4427425056</v>
-      </c>
-      <c r="BA3">
-        <v>605125.4716410136</v>
-      </c>
-      <c r="BB3">
-        <v>362180.1478288911</v>
-      </c>
-      <c r="BC3">
-        <v>519025.5075346968</v>
-      </c>
       <c r="BD3">
-        <v>220376.3751472832</v>
+        <v>76246.041239287078</v>
       </c>
       <c r="BE3">
-        <v>27839.99384821462</v>
+        <v>319396.79656938743</v>
       </c>
       <c r="BF3">
+        <v>4487.5807607873294</v>
+      </c>
+      <c r="BG3">
+        <v>783122.88195021532</v>
+      </c>
+      <c r="BH3">
+        <v>358863.44274250558</v>
+      </c>
+      <c r="BI3">
+        <v>605125.47164101363</v>
+      </c>
+      <c r="BJ3">
+        <v>362180.14782889112</v>
+      </c>
+      <c r="BK3">
+        <v>519025.50753469678</v>
+      </c>
+      <c r="BL3">
+        <v>220376.37514728319</v>
+      </c>
+      <c r="BM3">
+        <v>27839.993848214621</v>
+      </c>
+      <c r="BN3">
         <v>108265.1822342392</v>
       </c>
-      <c r="BG3">
+      <c r="BO3">
         <v>380924.284879755</v>
       </c>
-      <c r="BH3">
-        <v>181179.5048184851</v>
-      </c>
-      <c r="BJ3">
+      <c r="BP3">
+        <v>181179.50481848509</v>
+      </c>
+      <c r="BR3">
         <v>2022000</v>
       </c>
-      <c r="BK3">
-        <v>0</v>
-      </c>
-      <c r="BL3">
-        <v>0</v>
-      </c>
-      <c r="BN3">
-        <v>813611.4877437241</v>
-      </c>
-      <c r="BO3">
-        <v>788414.6652444556</v>
-      </c>
-      <c r="BP3">
-        <v>808199.2331207378</v>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>813611.48774372414</v>
+      </c>
+      <c r="BW3">
+        <v>788414.66524445557</v>
+      </c>
+      <c r="BX3">
+        <v>808199.23312073783</v>
       </c>
     </row>
-    <row r="4" spans="1:68">
+    <row r="4" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2766.595421565769</v>
+        <v>2766.5954215657689</v>
       </c>
       <c r="B4">
         <v>2716.516976012339</v>
@@ -866,157 +921,181 @@
         <v>2754.007994685192</v>
       </c>
       <c r="E4">
-        <v>2442.446396584248</v>
+        <v>2442.4463965842479</v>
       </c>
       <c r="F4">
-        <v>2381.96582424949</v>
+        <v>2381.9658242494902</v>
       </c>
       <c r="G4">
-        <v>2437.124259409016</v>
+        <v>2437.1242594090158</v>
       </c>
       <c r="I4">
-        <v>2503.955409587573</v>
+        <f t="shared" ref="I4:I26" si="2">A4-E4</f>
+        <v>324.14902498152105</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J26" si="3">B4-F4</f>
+        <v>334.5511517628488</v>
       </c>
       <c r="K4">
-        <v>6114.833572188249</v>
+        <f t="shared" ref="K4:K26" si="4">C4-G4</f>
+        <v>316.88373527617614</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <f t="shared" ref="M4:M26" si="5">I4/A4</f>
+        <v>0.11716531533839786</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N26" si="6">J4/B4</f>
+        <v>0.12315444914095365</v>
       </c>
       <c r="O4">
-        <v>0.5243889725649434</v>
+        <f t="shared" ref="O4:O26" si="7">K4/C4</f>
+        <v>0.11506275068471572</v>
       </c>
       <c r="Q4">
-        <v>0.1879522967552275</v>
-      </c>
-      <c r="R4">
+        <v>2503.9554095875728</v>
+      </c>
+      <c r="S4">
+        <v>6114.8335721882486</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0.52438897256494343</v>
+      </c>
+      <c r="Y4">
+        <v>0.18795229675522751</v>
+      </c>
+      <c r="Z4">
         <v>0.199978285165512</v>
       </c>
-      <c r="S4">
+      <c r="AA4">
         <v>0.1871908284541636</v>
       </c>
-      <c r="U4">
-        <v>29772720.12513782</v>
-      </c>
-      <c r="W4">
-        <v>62598885.23968934</v>
-      </c>
-      <c r="Y4">
-        <v>7959981.946736836</v>
-      </c>
-      <c r="Z4">
-        <v>7809418.844275836</v>
-      </c>
-      <c r="AA4">
-        <v>7927641.128867036</v>
-      </c>
       <c r="AC4">
-        <v>1496096.889019335</v>
-      </c>
-      <c r="AD4">
-        <v>1561714.188617516</v>
+        <v>29772720.125137821</v>
       </c>
       <c r="AE4">
-        <v>1483981.710599921</v>
+        <v>62598885.239689343</v>
       </c>
       <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AI4" t="s">
+        <v>7959981.9467368359</v>
+      </c>
+      <c r="AH4">
+        <v>7809418.8442758359</v>
+      </c>
+      <c r="AI4">
+        <v>7927641.1288670357</v>
+      </c>
+      <c r="AK4">
+        <v>1496096.8890193349</v>
+      </c>
+      <c r="AL4">
+        <v>1561714.1886175161</v>
+      </c>
+      <c r="AM4">
+        <v>1483981.7105999209</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="s">
         <v>17</v>
       </c>
-      <c r="AK4">
-        <v>841305.6000000002</v>
-      </c>
-      <c r="AL4">
-        <v>595924.8000000002</v>
-      </c>
-      <c r="AM4">
+      <c r="AS4">
+        <v>841305.60000000021</v>
+      </c>
+      <c r="AT4">
+        <v>595924.80000000016</v>
+      </c>
+      <c r="AU4">
         <v>420652.8000000001</v>
       </c>
-      <c r="AN4">
-        <v>771196.8000000002</v>
-      </c>
-      <c r="AO4">
+      <c r="AV4">
+        <v>771196.80000000016</v>
+      </c>
+      <c r="AW4">
         <v>420652.8000000001</v>
       </c>
-      <c r="AP4">
-        <v>955232.3999999998</v>
-      </c>
-      <c r="AQ4">
+      <c r="AX4">
+        <v>955232.39999999979</v>
+      </c>
+      <c r="AY4">
         <v>604688.4</v>
       </c>
-      <c r="AR4">
-        <v>227853.5999999999</v>
-      </c>
-      <c r="AS4">
+      <c r="AZ4">
+        <v>227853.59999999989</v>
+      </c>
+      <c r="BA4">
         <v>420652.8000000001</v>
       </c>
-      <c r="AT4">
-        <v>762433.1999999998</v>
-      </c>
-      <c r="AU4">
-        <v>227853.5999999999</v>
-      </c>
-      <c r="AV4">
-        <v>297962.4000000001</v>
-      </c>
-      <c r="AW4">
+      <c r="BB4">
+        <v>762433.19999999984</v>
+      </c>
+      <c r="BC4">
+        <v>227853.59999999989</v>
+      </c>
+      <c r="BD4">
+        <v>297962.40000000008</v>
+      </c>
+      <c r="BE4">
         <v>464470.8</v>
       </c>
-      <c r="AX4">
-        <v>753669.6000000001</v>
-      </c>
-      <c r="AY4">
+      <c r="BF4">
+        <v>753669.60000000009</v>
+      </c>
+      <c r="BG4">
         <v>473234.4</v>
       </c>
-      <c r="AZ4">
+      <c r="BH4">
         <v>604688.4</v>
       </c>
-      <c r="BA4">
+      <c r="BI4">
         <v>499525.2</v>
       </c>
-      <c r="BB4">
-        <v>262907.9999999999</v>
-      </c>
-      <c r="BC4">
-        <v>148981.2</v>
-      </c>
-      <c r="BD4">
-        <v>999050.3999999998</v>
-      </c>
-      <c r="BE4">
-        <v>674797.1999999998</v>
-      </c>
-      <c r="BF4">
+      <c r="BJ4">
+        <v>262907.99999999988</v>
+      </c>
+      <c r="BK4">
+        <v>148981.20000000001</v>
+      </c>
+      <c r="BL4">
+        <v>999050.39999999979</v>
+      </c>
+      <c r="BM4">
+        <v>674797.19999999984</v>
+      </c>
+      <c r="BN4">
         <v>368071.2</v>
       </c>
-      <c r="BG4">
-        <v>893887.1999999997</v>
-      </c>
-      <c r="BH4">
+      <c r="BO4">
+        <v>893887.19999999972</v>
+      </c>
+      <c r="BP4">
         <v>508288.8000000001</v>
       </c>
-      <c r="BJ4">
+      <c r="BR4">
         <v>1508100</v>
       </c>
-      <c r="BK4">
-        <v>0</v>
-      </c>
-      <c r="BL4">
-        <v>0</v>
-      </c>
-      <c r="BN4">
-        <v>4861718.964609279</v>
-      </c>
-      <c r="BO4">
-        <v>4711155.862148236</v>
-      </c>
-      <c r="BP4">
-        <v>4829378.146739471</v>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>4861718.9646092793</v>
+      </c>
+      <c r="BW4">
+        <v>4711155.8621482356</v>
+      </c>
+      <c r="BX4">
+        <v>4829378.1467394708</v>
       </c>
     </row>
-    <row r="5" spans="1:68">
+    <row r="5" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1344.561958759429</v>
       </c>
@@ -1030,302 +1109,350 @@
         <v>1126.48578739347</v>
       </c>
       <c r="F5">
-        <v>1107.476558508792</v>
+        <v>1107.4765585087921</v>
       </c>
       <c r="G5">
-        <v>1120.482189609371</v>
+        <v>1120.4821896093711</v>
       </c>
       <c r="I5">
+        <f t="shared" si="2"/>
+        <v>218.076171365959</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>221.70001519390689</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="4"/>
+        <v>220.2125882243929</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="5"/>
+        <v>0.1621912400133414</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="6"/>
+        <v>0.16679500645750564</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="7"/>
+        <v>0.1642525889301984</v>
+      </c>
+      <c r="Q5">
         <v>2295.762614109557</v>
       </c>
-      <c r="K5">
-        <v>5753.694596930282</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0.5477176970331117</v>
-      </c>
-      <c r="Q5">
-        <v>0.2640308329705358</v>
-      </c>
-      <c r="R5">
-        <v>0.2740664555644129</v>
-      </c>
       <c r="S5">
+        <v>5753.6945969302824</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0.54771769703311168</v>
+      </c>
+      <c r="Y5">
+        <v>0.26403083297053581</v>
+      </c>
+      <c r="Z5">
+        <v>0.27406645556441289</v>
+      </c>
+      <c r="AA5">
         <v>0.2698806739920061</v>
       </c>
-      <c r="U5">
+      <c r="AC5">
         <v>25958320.05436885</v>
       </c>
-      <c r="W5">
-        <v>57394065.35273891</v>
-      </c>
-      <c r="Y5">
-        <v>3866381.454026346</v>
-      </c>
-      <c r="Z5">
-        <v>3820124.600781415</v>
-      </c>
-      <c r="AA5">
-        <v>3856445.523897569</v>
-      </c>
-      <c r="AC5">
+      <c r="AE5">
+        <v>57394065.352738909</v>
+      </c>
+      <c r="AG5">
+        <v>3866381.4540263461</v>
+      </c>
+      <c r="AH5">
+        <v>3820124.6007814151</v>
+      </c>
+      <c r="AI5">
+        <v>3856445.5238975692</v>
+      </c>
+      <c r="AK5">
         <v>1020843.915888408</v>
       </c>
-      <c r="AD5">
+      <c r="AL5">
         <v>1046968.00915058</v>
       </c>
-      <c r="AE5">
+      <c r="AM5">
         <v>1040780.117202931</v>
       </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="s">
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="s">
         <v>18</v>
       </c>
-      <c r="AK5">
-        <v>900183.7521203785</v>
-      </c>
-      <c r="AL5">
-        <v>432308.7645874849</v>
-      </c>
-      <c r="AM5">
-        <v>502529.8921578499</v>
-      </c>
-      <c r="AN5">
-        <v>613114.7066493175</v>
-      </c>
-      <c r="AO5">
+      <c r="AS5">
+        <v>900183.75212037854</v>
+      </c>
+      <c r="AT5">
+        <v>432308.76458748488</v>
+      </c>
+      <c r="AU5">
+        <v>502529.89215784991</v>
+      </c>
+      <c r="AV5">
+        <v>613114.70664931752</v>
+      </c>
+      <c r="AW5">
         <v>564411.684685227</v>
       </c>
-      <c r="AP5">
-        <v>665014.5482769489</v>
-      </c>
-      <c r="AQ5">
-        <v>518138.5937608709</v>
-      </c>
-      <c r="AR5">
-        <v>872686.0776273466</v>
-      </c>
-      <c r="AS5">
-        <v>749012.6708252723</v>
-      </c>
-      <c r="AT5">
+      <c r="AX5">
+        <v>665014.54827694886</v>
+      </c>
+      <c r="AY5">
+        <v>518138.59376087092</v>
+      </c>
+      <c r="AZ5">
+        <v>872686.07762734662</v>
+      </c>
+      <c r="BA5">
+        <v>749012.67082527233</v>
+      </c>
+      <c r="BB5">
         <v>650719.923419317</v>
       </c>
-      <c r="AU5">
-        <v>757359.6589479132</v>
-      </c>
-      <c r="AV5">
-        <v>719105.3721841555</v>
-      </c>
-      <c r="AW5">
-        <v>802138.8260475924</v>
-      </c>
-      <c r="AX5">
+      <c r="BC5">
+        <v>757359.65894791321</v>
+      </c>
+      <c r="BD5">
+        <v>719105.37218415551</v>
+      </c>
+      <c r="BE5">
+        <v>802138.82604759245</v>
+      </c>
+      <c r="BF5">
         <v>452669.3406306422</v>
       </c>
-      <c r="AY5">
-        <v>580137.5679714148</v>
-      </c>
-      <c r="AZ5">
-        <v>411616.3329298265</v>
-      </c>
-      <c r="BA5">
-        <v>935767.7599833652</v>
-      </c>
-      <c r="BB5">
-        <v>463762.2336302613</v>
-      </c>
-      <c r="BC5">
-        <v>773786.4021281101</v>
-      </c>
-      <c r="BD5">
-        <v>435972.6197557385</v>
-      </c>
-      <c r="BE5">
-        <v>948110.4429700527</v>
-      </c>
-      <c r="BF5">
-        <v>423437.0845697187</v>
-      </c>
       <c r="BG5">
-        <v>871219.522788442</v>
+        <v>580137.56797141477</v>
       </c>
       <c r="BH5">
-        <v>561781.6012352839</v>
+        <v>411616.33292982652</v>
+      </c>
+      <c r="BI5">
+        <v>935767.75998336519</v>
       </c>
       <c r="BJ5">
+        <v>463762.23363026133</v>
+      </c>
+      <c r="BK5">
+        <v>773786.40212811006</v>
+      </c>
+      <c r="BL5">
+        <v>435972.61975573847</v>
+      </c>
+      <c r="BM5">
+        <v>948110.44297005271</v>
+      </c>
+      <c r="BN5">
+        <v>423437.08456971869</v>
+      </c>
+      <c r="BO5">
+        <v>871219.52278844197</v>
+      </c>
+      <c r="BP5">
+        <v>561781.60123528389</v>
+      </c>
+      <c r="BR5">
         <v>821700</v>
       </c>
-      <c r="BK5">
-        <v>0</v>
-      </c>
-      <c r="BL5">
-        <v>0</v>
-      </c>
-      <c r="BN5">
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
         <v>1493644.970036794</v>
       </c>
-      <c r="BO5">
+      <c r="BW5">
         <v>1447388.116791887</v>
       </c>
-      <c r="BP5">
-        <v>1483709.039908022</v>
+      <c r="BX5">
+        <v>1483709.0399080219</v>
       </c>
     </row>
-    <row r="6" spans="1:68">
+    <row r="6" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2151.973938783332</v>
       </c>
       <c r="B6">
-        <v>2120.684961739971</v>
+        <v>2120.6849617399712</v>
       </c>
       <c r="C6">
-        <v>2144.109323451357</v>
+        <v>2144.1093234513569</v>
       </c>
       <c r="E6">
-        <v>1851.878141556965</v>
+        <v>1851.8781415569649</v>
       </c>
       <c r="F6">
         <v>1804.998916137107</v>
       </c>
       <c r="G6">
-        <v>1847.322202474361</v>
-      </c>
-      <c r="Q6">
-        <v>0.2255681141620648</v>
-      </c>
-      <c r="R6">
-        <v>0.2433373779355612</v>
-      </c>
-      <c r="S6">
-        <v>0.226279461454532</v>
+        <v>1847.3222024743609</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>300.09579722636704</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>315.68604560286417</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="4"/>
+        <v>296.78712097699599</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="5"/>
+        <v>0.13945140868947192</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="6"/>
+        <v>0.14886041599684441</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="7"/>
+        <v>0.13841977073224043</v>
       </c>
       <c r="Y6">
-        <v>6181815.43504341</v>
+        <v>0.22556811416206479</v>
       </c>
       <c r="Z6">
-        <v>6087743.716074914</v>
+        <v>0.24333737793556121</v>
       </c>
       <c r="AA6">
-        <v>6161608.915118337</v>
-      </c>
-      <c r="AC6">
-        <v>1394420.449780686</v>
-      </c>
-      <c r="AD6">
+        <v>0.22627946145453201</v>
+      </c>
+      <c r="AG6">
+        <v>6181815.4350434104</v>
+      </c>
+      <c r="AH6">
+        <v>6087743.7160749137</v>
+      </c>
+      <c r="AI6">
+        <v>6161608.9151183367</v>
+      </c>
+      <c r="AK6">
+        <v>1394420.4497806861</v>
+      </c>
+      <c r="AL6">
         <v>1481375.593413359</v>
       </c>
-      <c r="AE6">
-        <v>1394245.54700642</v>
-      </c>
-      <c r="AI6" t="s">
+      <c r="AM6">
+        <v>1394245.5470064201</v>
+      </c>
+      <c r="AQ6" t="s">
         <v>19</v>
       </c>
-      <c r="AK6">
+      <c r="AS6">
         <v>446278</v>
       </c>
-      <c r="AL6">
+      <c r="AT6">
         <v>167295</v>
       </c>
-      <c r="AM6">
+      <c r="AU6">
         <v>469934</v>
       </c>
-      <c r="AN6">
+      <c r="AV6">
         <v>207874</v>
       </c>
-      <c r="AO6">
+      <c r="AW6">
         <v>26683</v>
       </c>
-      <c r="AP6">
+      <c r="AX6">
         <v>18577</v>
       </c>
-      <c r="AQ6">
+      <c r="AY6">
         <v>76695</v>
       </c>
-      <c r="AR6">
+      <c r="AZ6">
         <v>27441</v>
       </c>
-      <c r="AS6">
+      <c r="BA6">
         <v>523869.5</v>
       </c>
-      <c r="AT6">
+      <c r="BB6">
         <v>463110</v>
       </c>
-      <c r="AU6">
+      <c r="BC6">
         <v>266463.5</v>
       </c>
-      <c r="AV6">
+      <c r="BD6">
         <v>402801</v>
       </c>
-      <c r="AW6">
+      <c r="BE6">
         <v>205121</v>
       </c>
-      <c r="AX6">
+      <c r="BF6">
         <v>249998</v>
       </c>
-      <c r="AY6">
+      <c r="BG6">
         <v>26504</v>
       </c>
-      <c r="AZ6">
+      <c r="BH6">
         <v>100560</v>
       </c>
-      <c r="BA6">
+      <c r="BI6">
         <v>206717</v>
       </c>
-      <c r="BB6">
+      <c r="BJ6">
         <v>264470</v>
       </c>
-      <c r="BC6">
+      <c r="BK6">
         <v>703488.75</v>
       </c>
-      <c r="BD6">
+      <c r="BL6">
         <v>193023</v>
       </c>
-      <c r="BE6">
+      <c r="BM6">
         <v>64607</v>
       </c>
-      <c r="BF6">
+      <c r="BN6">
         <v>197644</v>
       </c>
-      <c r="BG6">
+      <c r="BO6">
         <v>49854</v>
       </c>
-      <c r="BH6">
+      <c r="BP6">
         <v>261248</v>
       </c>
-      <c r="BJ6">
+      <c r="BR6">
         <v>1514150</v>
       </c>
-      <c r="BK6">
-        <v>0</v>
-      </c>
-      <c r="BL6">
-        <v>0</v>
-      </c>
-      <c r="BN6">
-        <v>3037598.539529248</v>
-      </c>
-      <c r="BO6">
-        <v>2943526.820560734</v>
-      </c>
-      <c r="BP6">
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>3037598.5395292481</v>
+      </c>
+      <c r="BW6">
+        <v>2943526.8205607338</v>
+      </c>
+      <c r="BX6">
         <v>3017392.019604167</v>
       </c>
     </row>
-    <row r="7" spans="1:68">
+    <row r="7" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>1229.747165281677</v>
+        <v>1229.7471652816771</v>
       </c>
       <c r="B7">
-        <v>1215.307323633234</v>
+        <v>1215.3073236332341</v>
       </c>
       <c r="C7">
-        <v>1226.473814919539</v>
+        <v>1226.4738149195391</v>
       </c>
       <c r="E7">
         <v>1036.93397454004</v>
@@ -1336,64 +1463,88 @@
       <c r="G7">
         <v>1040.327512489471</v>
       </c>
-      <c r="Q7">
-        <v>0.2690873977864822</v>
-      </c>
-      <c r="R7">
-        <v>0.2754476679917026</v>
-      </c>
-      <c r="S7">
-        <v>0.261325306071587</v>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>192.81319074163707</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>194.56846813298307</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="4"/>
+        <v>186.14630243006809</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="5"/>
+        <v>0.15679092108130427</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="6"/>
+        <v>0.16009816146858144</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="7"/>
+        <v>0.15177356431558217</v>
       </c>
       <c r="Y7">
-        <v>3550695.801966675</v>
+        <v>0.26908739778648222</v>
       </c>
       <c r="Z7">
-        <v>3508333.979918326</v>
+        <v>0.27544766799170262</v>
       </c>
       <c r="AA7">
-        <v>3541596.521006697</v>
-      </c>
-      <c r="AC7">
-        <v>955447.4936825989</v>
-      </c>
-      <c r="AD7">
+        <v>0.26132530607158699</v>
+      </c>
+      <c r="AG7">
+        <v>3550695.8019666751</v>
+      </c>
+      <c r="AH7">
+        <v>3508333.9799183258</v>
+      </c>
+      <c r="AI7">
+        <v>3541596.5210066969</v>
+      </c>
+      <c r="AK7">
+        <v>955447.49368259893</v>
+      </c>
+      <c r="AL7">
         <v>966362.4133045515</v>
       </c>
-      <c r="AE7">
+      <c r="AM7">
         <v>925508.7948341429</v>
       </c>
-      <c r="BJ7">
+      <c r="BR7">
         <v>805800</v>
       </c>
-      <c r="BK7">
-        <v>0</v>
-      </c>
-      <c r="BL7">
-        <v>0</v>
-      </c>
-      <c r="BN7">
+      <c r="BS7">
+        <v>0</v>
+      </c>
+      <c r="BT7">
+        <v>0</v>
+      </c>
+      <c r="BV7">
         <v>1367873.471398656</v>
       </c>
-      <c r="BO7">
-        <v>1325511.649350302</v>
-      </c>
-      <c r="BP7">
-        <v>1358774.190438676</v>
+      <c r="BW7">
+        <v>1325511.6493503021</v>
+      </c>
+      <c r="BX7">
+        <v>1358774.1904386759</v>
       </c>
     </row>
-    <row r="8" spans="1:68">
+    <row r="8" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>1913.754579968789</v>
+        <v>1913.7545799687889</v>
       </c>
       <c r="B8">
-        <v>1889.141837831172</v>
+        <v>1889.1418378311721</v>
       </c>
       <c r="C8">
         <v>1908.175147011641</v>
       </c>
       <c r="E8">
-        <v>1633.782276514005</v>
+        <v>1633.7822765140049</v>
       </c>
       <c r="F8">
         <v>1601.795989241592</v>
@@ -1401,53 +1552,81 @@
       <c r="G8">
         <v>1628.297282722365</v>
       </c>
-      <c r="Q8">
-        <v>0.2506836400330802</v>
-      </c>
-      <c r="R8">
-        <v>0.2616803243445103</v>
-      </c>
-      <c r="S8">
-        <v>0.2524950186747318</v>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>279.97230345478397</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>287.3458485895801</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="4"/>
+        <v>279.87786428927598</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="5"/>
+        <v>0.14629477906166527</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="6"/>
+        <v>0.15210390391833536</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="7"/>
+        <v>0.14667304766419775</v>
+      </c>
+      <c r="W8">
+        <f>AVERAGE(W3:W5)</f>
+        <v>0.54625979871373886</v>
       </c>
       <c r="Y8">
-        <v>5530316.229133952</v>
+        <v>0.25068364003308019</v>
       </c>
       <c r="Z8">
-        <v>5458110.409434547</v>
+        <v>0.26168032434451027</v>
       </c>
       <c r="AA8">
-        <v>5514806.48454269</v>
-      </c>
-      <c r="AC8">
+        <v>0.25249501867473179</v>
+      </c>
+      <c r="AG8">
+        <v>5530316.2291339524</v>
+      </c>
+      <c r="AH8">
+        <v>5458110.4094345467</v>
+      </c>
+      <c r="AI8">
+        <v>5514806.4845426902</v>
+      </c>
+      <c r="AK8">
         <v>1386359.802853317</v>
       </c>
-      <c r="AD8">
+      <c r="AL8">
         <v>1428280.10224898</v>
       </c>
-      <c r="AE8">
+      <c r="AM8">
         <v>1392461.166302138</v>
       </c>
-      <c r="BJ8">
+      <c r="BR8">
         <v>1528450</v>
       </c>
-      <c r="BK8">
-        <v>0</v>
-      </c>
-      <c r="BL8">
-        <v>0</v>
-      </c>
-      <c r="BN8">
-        <v>2331543.367862554</v>
-      </c>
-      <c r="BO8">
-        <v>2259337.548163142</v>
-      </c>
-      <c r="BP8">
-        <v>2316033.62327129</v>
+      <c r="BS8">
+        <v>0</v>
+      </c>
+      <c r="BT8">
+        <v>0</v>
+      </c>
+      <c r="BV8">
+        <v>2331543.3678625538</v>
+      </c>
+      <c r="BW8">
+        <v>2259337.5481631421</v>
+      </c>
+      <c r="BX8">
+        <v>2316033.6232712902</v>
       </c>
     </row>
-    <row r="9" spans="1:68">
+    <row r="9" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1254.116950473632</v>
       </c>
@@ -1455,69 +1634,97 @@
         <v>1248.187018651045</v>
       </c>
       <c r="C9">
-        <v>1252.665388104835</v>
+        <v>1252.6653881048351</v>
       </c>
       <c r="E9">
         <v>1023.417357659263</v>
       </c>
       <c r="F9">
-        <v>998.6912256150648</v>
+        <v>998.69122561506481</v>
       </c>
       <c r="G9">
         <v>1021.949646814978</v>
       </c>
-      <c r="Q9">
-        <v>0.3183527117545306</v>
-      </c>
-      <c r="R9">
-        <v>0.3480537131220869</v>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>230.699592814369</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>249.49579303598023</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>230.71574128985708</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="5"/>
+        <v>0.18395381126715701</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="6"/>
+        <v>0.19988654689392474</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="7"/>
+        <v>0.18417986437615899</v>
       </c>
       <c r="S9">
-        <v>0.3217163521726257</v>
+        <f>AVERAGE(S3:S5)</f>
+        <v>5833.8376878539066</v>
       </c>
       <c r="Y9">
-        <v>3780319.008598803</v>
+        <v>0.31835271175453062</v>
       </c>
       <c r="Z9">
+        <v>0.34805371312208688</v>
+      </c>
+      <c r="AA9">
+        <v>0.32171635217262567</v>
+      </c>
+      <c r="AG9">
+        <v>3780319.0085988031</v>
+      </c>
+      <c r="AH9">
         <v>3761515.40971875</v>
       </c>
-      <c r="AA9">
-        <v>3776280.012611495</v>
-      </c>
-      <c r="AC9">
-        <v>1203474.807684627</v>
-      </c>
-      <c r="AD9">
-        <v>1309209.405318559</v>
-      </c>
-      <c r="AE9">
-        <v>1214891.030439767</v>
-      </c>
-      <c r="BJ9">
+      <c r="AI9">
+        <v>3776280.0126114949</v>
+      </c>
+      <c r="AK9">
+        <v>1203474.8076846269</v>
+      </c>
+      <c r="AL9">
+        <v>1309209.4053185589</v>
+      </c>
+      <c r="AM9">
+        <v>1214891.0304397671</v>
+      </c>
+      <c r="BR9">
         <v>1503700</v>
       </c>
-      <c r="BK9">
-        <v>0</v>
-      </c>
-      <c r="BL9">
-        <v>0</v>
-      </c>
-      <c r="BN9">
+      <c r="BS9">
+        <v>0</v>
+      </c>
+      <c r="BT9">
+        <v>0</v>
+      </c>
+      <c r="BV9">
         <v>607172.7520476135</v>
       </c>
-      <c r="BO9">
+      <c r="BW9">
         <v>588369.1531675586</v>
       </c>
-      <c r="BP9">
-        <v>603133.7560603049</v>
+      <c r="BX9">
+        <v>603133.75606030494</v>
       </c>
     </row>
-    <row r="10" spans="1:68">
+    <row r="10" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>2252.25513947955</v>
+        <v>2252.2551394795501</v>
       </c>
       <c r="B10">
-        <v>2214.223098168787</v>
+        <v>2214.2230981687871</v>
       </c>
       <c r="C10">
         <v>2242.945440544182</v>
@@ -1529,66 +1736,90 @@
         <v>1941.713295976886</v>
       </c>
       <c r="G10">
-        <v>1979.957239265813</v>
-      </c>
-      <c r="Q10">
-        <v>0.1996954491576901</v>
-      </c>
-      <c r="R10">
-        <v>0.2130968384260175</v>
-      </c>
-      <c r="S10">
-        <v>0.2029689300506425</v>
+        <v>1979.9572392658131</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>262.35506408230208</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>272.50980219190114</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="4"/>
+        <v>262.98820127836893</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="5"/>
+        <v>0.11648549912641201</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="6"/>
+        <v>0.12307242319767731</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="7"/>
+        <v>0.11725126992592513</v>
       </c>
       <c r="Y10">
-        <v>6879782.07564516</v>
+        <v>0.19969544915769011</v>
       </c>
       <c r="Z10">
-        <v>6759183.85111373</v>
+        <v>0.21309683842601751</v>
       </c>
       <c r="AA10">
-        <v>6853877.686380847</v>
-      </c>
-      <c r="AC10">
+        <v>0.20296893005064251</v>
+      </c>
+      <c r="AG10">
+        <v>6879782.0756451599</v>
+      </c>
+      <c r="AH10">
+        <v>6759183.8511137301</v>
+      </c>
+      <c r="AI10">
+        <v>6853877.6863808474</v>
+      </c>
+      <c r="AK10">
         <v>1373861.171702985</v>
       </c>
-      <c r="AD10">
-        <v>1440360.709012529</v>
-      </c>
-      <c r="AE10">
-        <v>1391124.220702693</v>
-      </c>
-      <c r="BJ10">
+      <c r="AL10">
+        <v>1440360.7090125291</v>
+      </c>
+      <c r="AM10">
+        <v>1391124.2207026931</v>
+      </c>
+      <c r="BR10">
         <v>1518550</v>
       </c>
-      <c r="BK10">
-        <v>0</v>
-      </c>
-      <c r="BL10">
-        <v>0</v>
-      </c>
-      <c r="BN10">
-        <v>3894145.814739472</v>
-      </c>
-      <c r="BO10">
+      <c r="BS10">
+        <v>0</v>
+      </c>
+      <c r="BT10">
+        <v>0</v>
+      </c>
+      <c r="BV10">
+        <v>3894145.8147394722</v>
+      </c>
+      <c r="BW10">
         <v>3773547.590208034</v>
       </c>
-      <c r="BP10">
-        <v>3868241.425475159</v>
+      <c r="BX10">
+        <v>3868241.4254751592</v>
       </c>
     </row>
-    <row r="11" spans="1:68">
+    <row r="11" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>1760.240990228266</v>
+        <v>1760.2409902282659</v>
       </c>
       <c r="B11">
-        <v>1750.456602720995</v>
+        <v>1750.4566027209951</v>
       </c>
       <c r="C11">
-        <v>1757.845912319735</v>
+        <v>1757.8459123197349</v>
       </c>
       <c r="E11">
-        <v>1449.381561394083</v>
+        <v>1449.3815613940831</v>
       </c>
       <c r="F11">
         <v>1425.871144284934</v>
@@ -1596,129 +1827,177 @@
       <c r="G11">
         <v>1451.803867310603</v>
       </c>
-      <c r="Q11">
-        <v>0.3064399299396396</v>
-      </c>
-      <c r="R11">
-        <v>0.3257414071306231</v>
-      </c>
-      <c r="S11">
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>310.85942883418284</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>324.58545843606112</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="4"/>
+        <v>306.04204500913193</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="5"/>
+        <v>0.17660049422770854</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="6"/>
+        <v>0.18542902345108681</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="7"/>
+        <v>0.17410060965199428</v>
+      </c>
+      <c r="Y11">
+        <v>0.30643992993963959</v>
+      </c>
+      <c r="Z11">
+        <v>0.32574140713062311</v>
+      </c>
+      <c r="AA11">
         <v>0.3057573672091089</v>
       </c>
-      <c r="Y11">
-        <v>5313751.114014373</v>
-      </c>
-      <c r="Z11">
-        <v>5282725.175862284</v>
-      </c>
-      <c r="AA11">
-        <v>5307086.770635314</v>
-      </c>
-      <c r="AC11">
+      <c r="AG11">
+        <v>5313751.1140143732</v>
+      </c>
+      <c r="AH11">
+        <v>5282725.1758622844</v>
+      </c>
+      <c r="AI11">
+        <v>5307086.7706353143</v>
+      </c>
+      <c r="AK11">
         <v>1628345.519095246</v>
       </c>
-      <c r="AD11">
-        <v>1720802.332269749</v>
-      </c>
-      <c r="AE11">
-        <v>1622680.878539746</v>
-      </c>
-      <c r="BJ11">
+      <c r="AL11">
+        <v>1720802.3322697489</v>
+      </c>
+      <c r="AM11">
+        <v>1622680.8785397459</v>
+      </c>
+      <c r="BR11">
         <v>2071500</v>
       </c>
-      <c r="BK11">
-        <v>0</v>
-      </c>
-      <c r="BL11">
-        <v>0</v>
-      </c>
-      <c r="BN11">
+      <c r="BS11">
+        <v>0</v>
+      </c>
+      <c r="BT11">
+        <v>0</v>
+      </c>
+      <c r="BV11">
         <v>1001835.040878427</v>
       </c>
-      <c r="BO11">
+      <c r="BW11">
         <v>970809.1027263382</v>
       </c>
-      <c r="BP11">
-        <v>995170.6974993675</v>
+      <c r="BX11">
+        <v>995170.69749936752</v>
       </c>
     </row>
-    <row r="12" spans="1:68">
+    <row r="12" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>2408.35617688745</v>
+        <v>2408.3561768874501</v>
       </c>
       <c r="B12">
-        <v>2374.762072466258</v>
+        <v>2374.7620724662579</v>
       </c>
       <c r="C12">
-        <v>2399.91215814152</v>
+        <v>2399.9121581415202</v>
       </c>
       <c r="E12">
-        <v>2078.585055968462</v>
+        <v>2078.5850559684618</v>
       </c>
       <c r="F12">
-        <v>2033.932323466545</v>
+        <v>2033.9323234665451</v>
       </c>
       <c r="G12">
-        <v>2073.410040262407</v>
-      </c>
-      <c r="Q12">
-        <v>0.2206555762417648</v>
-      </c>
-      <c r="R12">
-        <v>0.2349524430261719</v>
-      </c>
-      <c r="S12">
-        <v>0.2223926575462195</v>
+        <v>2073.4100402624072</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>329.77112091898834</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>340.82974899971282</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="4"/>
+        <v>326.50211787911303</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="5"/>
+        <v>0.13692788636653538</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="6"/>
+        <v>0.14352164073672924</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="7"/>
+        <v>0.13604752856119309</v>
       </c>
       <c r="Y12">
-        <v>6910823.495069199</v>
+        <v>0.22065557624176479</v>
       </c>
       <c r="Z12">
-        <v>6809821.306799198</v>
+        <v>0.23495244302617191</v>
       </c>
       <c r="AA12">
-        <v>6889128.31662309</v>
-      </c>
-      <c r="AC12">
-        <v>1524911.740609621</v>
-      </c>
-      <c r="AD12">
-        <v>1599984.15260415</v>
-      </c>
-      <c r="AE12">
-        <v>1532091.554510722</v>
-      </c>
-      <c r="BJ12">
+        <v>0.22239265754621951</v>
+      </c>
+      <c r="AG12">
+        <v>6910823.4950691992</v>
+      </c>
+      <c r="AH12">
+        <v>6809821.3067991976</v>
+      </c>
+      <c r="AI12">
+        <v>6889128.3166230898</v>
+      </c>
+      <c r="AK12">
+        <v>1524911.7406096209</v>
+      </c>
+      <c r="AL12">
+        <v>1599984.1526041499</v>
+      </c>
+      <c r="AM12">
+        <v>1532091.5545107219</v>
+      </c>
+      <c r="BR12">
         <v>1482800</v>
       </c>
-      <c r="BK12">
-        <v>0</v>
-      </c>
-      <c r="BL12">
-        <v>0</v>
-      </c>
-      <c r="BN12">
-        <v>3261385.068140579</v>
-      </c>
-      <c r="BO12">
+      <c r="BS12">
+        <v>0</v>
+      </c>
+      <c r="BT12">
+        <v>0</v>
+      </c>
+      <c r="BV12">
+        <v>3261385.0681405789</v>
+      </c>
+      <c r="BW12">
         <v>3160382.879870635</v>
       </c>
-      <c r="BP12">
-        <v>3239689.889694471</v>
+      <c r="BX12">
+        <v>3239689.8896944709</v>
       </c>
     </row>
-    <row r="13" spans="1:68">
+    <row r="13" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>1578.813251892834</v>
+        <v>1578.8132518928339</v>
       </c>
       <c r="B13">
-        <v>1561.301431503064</v>
+        <v>1561.3014315030639</v>
       </c>
       <c r="C13">
-        <v>1574.411582546548</v>
+        <v>1574.4115825465481</v>
       </c>
       <c r="E13">
-        <v>1313.294483780502</v>
+        <v>1313.2944837805021</v>
       </c>
       <c r="F13">
         <v>1284.774828487195</v>
@@ -1726,64 +2005,88 @@
       <c r="G13">
         <v>1307.491194220705</v>
       </c>
-      <c r="Q13">
-        <v>0.272689487698257</v>
-      </c>
-      <c r="R13">
-        <v>0.2914574995401961</v>
-      </c>
-      <c r="S13">
-        <v>0.2792439021667228</v>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>265.51876811233183</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>276.52660301586889</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="4"/>
+        <v>266.92038832584308</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="5"/>
+        <v>0.16817617143382999</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="6"/>
+        <v>0.17711288636279343</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="7"/>
+        <v>0.16953660102913495</v>
       </c>
       <c r="Y13">
-        <v>4503223.81065697</v>
+        <v>0.27268948769825702</v>
       </c>
       <c r="Z13">
+        <v>0.29145749954019612</v>
+      </c>
+      <c r="AA13">
+        <v>0.27924390216672279</v>
+      </c>
+      <c r="AG13">
+        <v>4503223.8106569704</v>
+      </c>
+      <c r="AH13">
         <v>4450573.73379282</v>
       </c>
-      <c r="AA13">
-        <v>4491914.621892508</v>
-      </c>
-      <c r="AC13">
+      <c r="AI13">
+        <v>4491914.6218925081</v>
+      </c>
+      <c r="AK13">
         <v>1227981.793918642</v>
       </c>
-      <c r="AD13">
-        <v>1297153.091970529</v>
-      </c>
-      <c r="AE13">
-        <v>1254339.767217023</v>
-      </c>
-      <c r="BJ13">
+      <c r="AL13">
+        <v>1297153.0919705289</v>
+      </c>
+      <c r="AM13">
+        <v>1254339.7672170231</v>
+      </c>
+      <c r="BR13">
         <v>1525700</v>
       </c>
-      <c r="BK13">
-        <v>0</v>
-      </c>
-      <c r="BL13">
-        <v>0</v>
-      </c>
-      <c r="BN13">
+      <c r="BS13">
+        <v>0</v>
+      </c>
+      <c r="BT13">
+        <v>0</v>
+      </c>
+      <c r="BV13">
         <v>1700083.705733194</v>
       </c>
-      <c r="BO13">
+      <c r="BW13">
         <v>1647433.628869043</v>
       </c>
-      <c r="BP13">
-        <v>1688774.516968734</v>
+      <c r="BX13">
+        <v>1688774.5169687341</v>
       </c>
     </row>
-    <row r="14" spans="1:68">
+    <row r="14" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>1604.359569697518</v>
+        <v>1604.3595696975181</v>
       </c>
       <c r="B14">
-        <v>1580.714144870197</v>
+        <v>1580.7141448701971</v>
       </c>
       <c r="C14">
-        <v>1598.416193205199</v>
+        <v>1598.4161932051991</v>
       </c>
       <c r="E14">
-        <v>1376.51694958726</v>
+        <v>1376.5169495872599</v>
       </c>
       <c r="F14">
         <v>1347.725532522408</v>
@@ -1791,188 +2094,260 @@
       <c r="G14">
         <v>1373.220191004503</v>
       </c>
-      <c r="Q14">
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>227.84262011025817</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>232.98861234778906</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="4"/>
+        <v>225.19600220069606</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="5"/>
+        <v>0.142014685743555</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="6"/>
+        <v>0.14739452614117102</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="7"/>
+        <v>0.14088696245570767</v>
+      </c>
+      <c r="Y14">
         <v>0.2295740913660862</v>
       </c>
-      <c r="R14">
-        <v>0.2409065225813067</v>
-      </c>
-      <c r="S14">
-        <v>0.2302859622852979</v>
-      </c>
-      <c r="Y14">
-        <v>4606761.510986077</v>
-      </c>
       <c r="Z14">
-        <v>4535670.476077417</v>
+        <v>0.24090652258130671</v>
       </c>
       <c r="AA14">
-        <v>4591491.22115692</v>
-      </c>
-      <c r="AC14">
+        <v>0.23028596228529791</v>
+      </c>
+      <c r="AG14">
+        <v>4606761.5109860767</v>
+      </c>
+      <c r="AH14">
+        <v>4535670.4760774169</v>
+      </c>
+      <c r="AI14">
+        <v>4591491.2211569203</v>
+      </c>
+      <c r="AK14">
         <v>1057593.088024887</v>
       </c>
-      <c r="AD14">
-        <v>1092672.60196651</v>
-      </c>
-      <c r="AE14">
-        <v>1057355.974188619</v>
-      </c>
-      <c r="BJ14">
+      <c r="AL14">
+        <v>1092672.6019665101</v>
+      </c>
+      <c r="AM14">
+        <v>1057355.9741886191</v>
+      </c>
+      <c r="BR14">
         <v>815100</v>
       </c>
-      <c r="BK14">
-        <v>0</v>
-      </c>
-      <c r="BL14">
-        <v>0</v>
-      </c>
-      <c r="BN14">
-        <v>2295546.697562731</v>
-      </c>
-      <c r="BO14">
-        <v>2224455.662654036</v>
-      </c>
-      <c r="BP14">
-        <v>2280276.407733567</v>
+      <c r="BS14">
+        <v>0</v>
+      </c>
+      <c r="BT14">
+        <v>0</v>
+      </c>
+      <c r="BV14">
+        <v>2295546.6975627309</v>
+      </c>
+      <c r="BW14">
+        <v>2224455.6626540362</v>
+      </c>
+      <c r="BX14">
+        <v>2280276.4077335671</v>
       </c>
     </row>
-    <row r="15" spans="1:68">
+    <row r="15" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1513.741478521431</v>
       </c>
       <c r="B15">
-        <v>1495.062165291973</v>
+        <v>1495.0621652919731</v>
       </c>
       <c r="C15">
         <v>1509.507087437876</v>
       </c>
       <c r="E15">
-        <v>1295.59097890169</v>
+        <v>1295.5909789016901</v>
       </c>
       <c r="F15">
-        <v>1270.081884048962</v>
+        <v>1270.0818840489619</v>
       </c>
       <c r="G15">
-        <v>1290.46289745857</v>
-      </c>
-      <c r="Q15">
+        <v>1290.4628974585701</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>218.15049961974091</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>224.98028124301118</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="4"/>
+        <v>219.04418997930588</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="5"/>
+        <v>0.14411344520520281</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="6"/>
+        <v>0.15048222506458414</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="7"/>
+        <v>0.14510974595759935</v>
+      </c>
+      <c r="Y15">
         <v>0.2473876283269458</v>
       </c>
-      <c r="R15">
-        <v>0.2590166198501634</v>
-      </c>
-      <c r="S15">
-        <v>0.2502017350585188</v>
-      </c>
-      <c r="Y15">
-        <v>4374502.3000127</v>
-      </c>
       <c r="Z15">
-        <v>4319703.240419402</v>
+        <v>0.25901661985016339</v>
       </c>
       <c r="AA15">
-        <v>4362731.511706832</v>
-      </c>
-      <c r="AC15">
+        <v>0.25020173505851878</v>
+      </c>
+      <c r="AG15">
+        <v>4374502.3000127003</v>
+      </c>
+      <c r="AH15">
+        <v>4319703.2404194018</v>
+      </c>
+      <c r="AI15">
+        <v>4362731.5117068319</v>
+      </c>
+      <c r="AK15">
         <v>1082197.749110911</v>
       </c>
-      <c r="AD15">
+      <c r="AL15">
         <v>1118874.932089231</v>
       </c>
-      <c r="AE15">
-        <v>1091562.993823524</v>
-      </c>
-      <c r="BJ15">
+      <c r="AM15">
+        <v>1091562.9938235241</v>
+      </c>
+      <c r="BR15">
         <v>813900</v>
       </c>
-      <c r="BK15">
-        <v>0</v>
-      </c>
-      <c r="BL15">
-        <v>0</v>
-      </c>
-      <c r="BN15">
+      <c r="BS15">
+        <v>0</v>
+      </c>
+      <c r="BT15">
+        <v>0</v>
+      </c>
+      <c r="BV15">
         <v>1769474.877395621</v>
       </c>
-      <c r="BO15">
+      <c r="BW15">
         <v>1714675.817802316</v>
       </c>
-      <c r="BP15">
-        <v>1757704.089089753</v>
+      <c r="BX15">
+        <v>1757704.0890897531</v>
       </c>
     </row>
-    <row r="16" spans="1:68">
+    <row r="16" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>1810.752170445879</v>
+        <v>1810.7521704458791</v>
       </c>
       <c r="B16">
-        <v>1786.57894156071</v>
+        <v>1786.5789415607101</v>
       </c>
       <c r="C16">
-        <v>1805.272370220098</v>
+        <v>1805.2723702200981</v>
       </c>
       <c r="E16">
         <v>1540.159867625209</v>
       </c>
       <c r="F16">
-        <v>1512.587839059153</v>
+        <v>1512.5878390591531</v>
       </c>
       <c r="G16">
-        <v>1532.548555316719</v>
-      </c>
-      <c r="Q16">
-        <v>0.2562380393627414</v>
-      </c>
-      <c r="R16">
-        <v>0.2639759313926809</v>
-      </c>
-      <c r="S16">
-        <v>0.2602471248878191</v>
+        <v>1532.5485553167191</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>270.59230282067006</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>273.99110250155695</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="4"/>
+        <v>272.72381490337898</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="5"/>
+        <v>0.14943640948614159</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="6"/>
+        <v>0.15336075900581547</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="7"/>
+        <v>0.15107073004730506</v>
       </c>
       <c r="Y16">
-        <v>5230783.186256479</v>
+        <v>0.25623803936274142</v>
       </c>
       <c r="Z16">
-        <v>5159866.756194564</v>
+        <v>0.26397593139268088</v>
       </c>
       <c r="AA16">
-        <v>5215550.401390062</v>
-      </c>
-      <c r="AC16">
+        <v>0.26024712488781909</v>
+      </c>
+      <c r="AG16">
+        <v>5230783.1862564785</v>
+      </c>
+      <c r="AH16">
+        <v>5159866.7561945636</v>
+      </c>
+      <c r="AI16">
+        <v>5215550.4013900617</v>
+      </c>
+      <c r="AK16">
         <v>1340325.627977954</v>
       </c>
-      <c r="AD16">
-        <v>1362080.632828591</v>
-      </c>
-      <c r="AE16">
+      <c r="AL16">
+        <v>1362080.6328285909</v>
+      </c>
+      <c r="AM16">
         <v>1357331.996669275</v>
       </c>
-      <c r="BJ16">
+      <c r="BR16">
         <v>1480050</v>
       </c>
-      <c r="BK16">
-        <v>0</v>
-      </c>
-      <c r="BL16">
-        <v>0</v>
-      </c>
-      <c r="BN16">
+      <c r="BS16">
+        <v>0</v>
+      </c>
+      <c r="BT16">
+        <v>0</v>
+      </c>
+      <c r="BV16">
         <v>2289908.664864874</v>
       </c>
-      <c r="BO16">
-        <v>2218992.23480294</v>
-      </c>
-      <c r="BP16">
+      <c r="BW16">
+        <v>2218992.2348029399</v>
+      </c>
+      <c r="BX16">
         <v>2274675.879998452</v>
       </c>
     </row>
-    <row r="17" spans="1:68">
+    <row r="17" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>1465.45920186968</v>
+        <v>1465.4592018696801</v>
       </c>
       <c r="B17">
-        <v>1455.141120498383</v>
+        <v>1455.1411204983831</v>
       </c>
       <c r="C17">
         <v>1462.933483347957</v>
@@ -1981,63 +2356,87 @@
         <v>1229.329658843187</v>
       </c>
       <c r="F17">
-        <v>1193.965513539072</v>
+        <v>1193.9655135390719</v>
       </c>
       <c r="G17">
-        <v>1219.41215509615</v>
-      </c>
-      <c r="Q17">
-        <v>0.2793288946984416</v>
-      </c>
-      <c r="R17">
-        <v>0.3132071257240888</v>
-      </c>
-      <c r="S17">
-        <v>0.2914419880422544</v>
+        <v>1219.4121550961499</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>236.12954302649314</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>261.17560695931115</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="4"/>
+        <v>243.52132825180706</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="5"/>
+        <v>0.16113006948622757</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="6"/>
+        <v>0.17948472713757069</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="7"/>
+        <v>0.16646097107197444</v>
       </c>
       <c r="Y17">
-        <v>4423179.438484369</v>
+        <v>0.27932889469844158</v>
       </c>
       <c r="Z17">
-        <v>4390461.176433075</v>
+        <v>0.31320712572408882</v>
       </c>
       <c r="AA17">
-        <v>4416151.585466454</v>
-      </c>
-      <c r="AC17">
+        <v>0.29144198804225441</v>
+      </c>
+      <c r="AG17">
+        <v>4423179.4384843688</v>
+      </c>
+      <c r="AH17">
+        <v>4390461.1764330752</v>
+      </c>
+      <c r="AI17">
+        <v>4416151.5854664538</v>
+      </c>
+      <c r="AK17">
         <v>1235521.823604712</v>
       </c>
-      <c r="AD17">
+      <c r="AL17">
         <v>1375123.725673805</v>
       </c>
-      <c r="AE17">
-        <v>1287051.997564297</v>
-      </c>
-      <c r="BJ17">
+      <c r="AM17">
+        <v>1287051.9975642969</v>
+      </c>
+      <c r="BR17">
         <v>1503700</v>
       </c>
-      <c r="BK17">
-        <v>0</v>
-      </c>
-      <c r="BL17">
-        <v>0</v>
-      </c>
-      <c r="BN17">
-        <v>1056480.58856261</v>
-      </c>
-      <c r="BO17">
+      <c r="BS17">
+        <v>0</v>
+      </c>
+      <c r="BT17">
+        <v>0</v>
+      </c>
+      <c r="BV17">
+        <v>1056480.5885626101</v>
+      </c>
+      <c r="BW17">
         <v>1023762.326511319</v>
       </c>
-      <c r="BP17">
-        <v>1049452.73554469</v>
+      <c r="BX17">
+        <v>1049452.7355446899</v>
       </c>
     </row>
-    <row r="18" spans="1:68">
+    <row r="18" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>1866.778941992062</v>
+        <v>1866.7789419920621</v>
       </c>
       <c r="B18">
-        <v>1840.22131875805</v>
+        <v>1840.2213187580501</v>
       </c>
       <c r="C18">
         <v>1860.278016240341</v>
@@ -2051,53 +2450,77 @@
       <c r="G18">
         <v>1605.808664832389</v>
       </c>
-      <c r="Q18">
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>260.68180211084905</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>269.02721246600504</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="4"/>
+        <v>254.46935140795199</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="5"/>
+        <v>0.13964256626586563</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="6"/>
+        <v>0.14619285719805117</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="7"/>
+        <v>0.13679103294583872</v>
+      </c>
+      <c r="Y18">
         <v>0.240060525774794</v>
       </c>
-      <c r="R18">
-        <v>0.2527108487265672</v>
-      </c>
-      <c r="S18">
-        <v>0.2376309385625081</v>
-      </c>
-      <c r="Y18">
-        <v>5688244.71519958</v>
-      </c>
       <c r="Z18">
-        <v>5604031.454501054</v>
+        <v>0.25271084872656718</v>
       </c>
       <c r="AA18">
-        <v>5670155.783170708</v>
-      </c>
-      <c r="AC18">
+        <v>0.23763093856250811</v>
+      </c>
+      <c r="AG18">
+        <v>5688244.7151995804</v>
+      </c>
+      <c r="AH18">
+        <v>5604031.4545010542</v>
+      </c>
+      <c r="AI18">
+        <v>5670155.7831707085</v>
+      </c>
+      <c r="AK18">
         <v>1365523.017066505</v>
       </c>
-      <c r="AD18">
-        <v>1416199.54515734</v>
-      </c>
-      <c r="AE18">
+      <c r="AL18">
+        <v>1416199.5451573399</v>
+      </c>
+      <c r="AM18">
         <v>1347404.440550488</v>
       </c>
-      <c r="BJ18">
+      <c r="BR18">
         <v>1493250</v>
       </c>
-      <c r="BK18">
-        <v>0</v>
-      </c>
-      <c r="BL18">
-        <v>0</v>
-      </c>
-      <c r="BN18">
-        <v>2719266.539527062</v>
-      </c>
-      <c r="BO18">
-        <v>2635053.278828541</v>
-      </c>
-      <c r="BP18">
-        <v>2701177.607498187</v>
+      <c r="BS18">
+        <v>0</v>
+      </c>
+      <c r="BT18">
+        <v>0</v>
+      </c>
+      <c r="BV18">
+        <v>2719266.5395270619</v>
+      </c>
+      <c r="BW18">
+        <v>2635053.2788285408</v>
+      </c>
+      <c r="BX18">
+        <v>2701177.6074981871</v>
       </c>
     </row>
-    <row r="19" spans="1:68">
+    <row r="19" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1908.402498935593</v>
       </c>
@@ -2105,129 +2528,177 @@
         <v>1894.170662561379</v>
       </c>
       <c r="C19">
-        <v>1904.918749250451</v>
+        <v>1904.9187492504509</v>
       </c>
       <c r="E19">
-        <v>1599.079905719237</v>
+        <v>1599.0799057192371</v>
       </c>
       <c r="F19">
         <v>1571.50977527998</v>
       </c>
       <c r="G19">
-        <v>1591.474456912364</v>
-      </c>
-      <c r="Q19">
-        <v>0.2811135423644824</v>
-      </c>
-      <c r="R19">
-        <v>0.2978597776077228</v>
-      </c>
-      <c r="S19">
-        <v>0.2870571854763238</v>
+        <v>1591.4744569123641</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>309.32259321635593</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>322.66088728139903</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="4"/>
+        <v>313.44429233808683</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="5"/>
+        <v>0.16208456726968229</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="6"/>
+        <v>0.17034414778924045</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="7"/>
+        <v>0.16454470431425022</v>
       </c>
       <c r="Y19">
-        <v>5774350.036538501</v>
+        <v>0.28111354236448238</v>
       </c>
       <c r="Z19">
+        <v>0.29785977760772281</v>
+      </c>
+      <c r="AA19">
+        <v>0.28705718547632381</v>
+      </c>
+      <c r="AG19">
+        <v>5774350.0365385013</v>
+      </c>
+      <c r="AH19">
         <v>5729221.399226374</v>
       </c>
-      <c r="AA19">
-        <v>5764656.446168963</v>
-      </c>
-      <c r="AC19">
-        <v>1623247.993623817</v>
-      </c>
-      <c r="AD19">
-        <v>1706504.611838974</v>
-      </c>
-      <c r="AE19">
-        <v>1654786.054675209</v>
-      </c>
-      <c r="BJ19">
+      <c r="AI19">
+        <v>5764656.4461689629</v>
+      </c>
+      <c r="AK19">
+        <v>1623247.9936238171</v>
+      </c>
+      <c r="AL19">
+        <v>1706504.6118389741</v>
+      </c>
+      <c r="AM19">
+        <v>1654786.0546752091</v>
+      </c>
+      <c r="BR19">
         <v>2070000</v>
       </c>
-      <c r="BK19">
-        <v>0</v>
-      </c>
-      <c r="BL19">
-        <v>0</v>
-      </c>
-      <c r="BN19">
-        <v>1457214.604914181</v>
-      </c>
-      <c r="BO19">
-        <v>1412085.967602048</v>
-      </c>
-      <c r="BP19">
-        <v>1447521.014544642</v>
+      <c r="BS19">
+        <v>0</v>
+      </c>
+      <c r="BT19">
+        <v>0</v>
+      </c>
+      <c r="BV19">
+        <v>1457214.6049141809</v>
+      </c>
+      <c r="BW19">
+        <v>1412085.9676020481</v>
+      </c>
+      <c r="BX19">
+        <v>1447521.0145446421</v>
       </c>
     </row>
-    <row r="20" spans="1:68">
+    <row r="20" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>1608.850897414707</v>
+        <v>1608.8508974147071</v>
       </c>
       <c r="B20">
-        <v>1590.928085321906</v>
+        <v>1590.9280853219061</v>
       </c>
       <c r="C20">
         <v>1604.345923583762</v>
       </c>
       <c r="E20">
-        <v>1341.915493846399</v>
+        <v>1341.9154938463989</v>
       </c>
       <c r="F20">
         <v>1309.094021115478</v>
       </c>
       <c r="G20">
-        <v>1341.671374010392</v>
-      </c>
-      <c r="Q20">
-        <v>0.2700054892493602</v>
-      </c>
-      <c r="R20">
-        <v>0.2914437637734004</v>
-      </c>
-      <c r="S20">
-        <v>0.2696612373036936</v>
+        <v>1341.6713740103919</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>266.93540356830817</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="3"/>
+        <v>281.83406420642814</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="4"/>
+        <v>262.67454957337009</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="5"/>
+        <v>0.16591680683228738</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="6"/>
+        <v>0.17715072529466486</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="7"/>
+        <v>0.16372687817014669</v>
       </c>
       <c r="Y20">
-        <v>4576654.010898278</v>
+        <v>0.27000548924936019</v>
       </c>
       <c r="Z20">
+        <v>0.29144376377340042</v>
+      </c>
+      <c r="AA20">
+        <v>0.26966123730369362</v>
+      </c>
+      <c r="AG20">
+        <v>4576654.0108982781</v>
+      </c>
+      <c r="AH20">
         <v>4522768.268964868</v>
       </c>
-      <c r="AA20">
-        <v>4565079.402397509</v>
-      </c>
-      <c r="AC20">
-        <v>1235721.705337636</v>
-      </c>
-      <c r="AD20">
-        <v>1318132.606982028</v>
-      </c>
-      <c r="AE20">
-        <v>1231024.960040118</v>
-      </c>
-      <c r="BJ20">
+      <c r="AI20">
+        <v>4565079.4023975087</v>
+      </c>
+      <c r="AK20">
+        <v>1235721.7053376359</v>
+      </c>
+      <c r="AL20">
+        <v>1318132.6069820281</v>
+      </c>
+      <c r="AM20">
+        <v>1231024.9600401181</v>
+      </c>
+      <c r="BR20">
         <v>1483350</v>
       </c>
-      <c r="BK20">
-        <v>0</v>
-      </c>
-      <c r="BL20">
-        <v>0</v>
-      </c>
-      <c r="BN20">
-        <v>1739983.629439304</v>
-      </c>
-      <c r="BO20">
-        <v>1686097.88750588</v>
-      </c>
-      <c r="BP20">
+      <c r="BS20">
+        <v>0</v>
+      </c>
+      <c r="BT20">
+        <v>0</v>
+      </c>
+      <c r="BV20">
+        <v>1739983.6294393039</v>
+      </c>
+      <c r="BW20">
+        <v>1686097.8875058801</v>
+      </c>
+      <c r="BX20">
         <v>1728409.020938531</v>
       </c>
     </row>
-    <row r="21" spans="1:68">
+    <row r="21" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1288.47507184745</v>
       </c>
@@ -2235,7 +2706,7 @@
         <v>1281.336324657932</v>
       </c>
       <c r="C21">
-        <v>1286.680717863935</v>
+        <v>1286.6807178639349</v>
       </c>
       <c r="E21">
         <v>1064.049358425392</v>
@@ -2244,120 +2715,168 @@
         <v>1046.640248809593</v>
       </c>
       <c r="G21">
-        <v>1060.959894265669</v>
-      </c>
-      <c r="Q21">
-        <v>0.2861724068617367</v>
-      </c>
-      <c r="R21">
-        <v>0.3029925925725779</v>
-      </c>
-      <c r="S21">
-        <v>0.2903601773484631</v>
+        <v>1060.9598942656689</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>224.42571342205792</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="3"/>
+        <v>234.69607584833898</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="4"/>
+        <v>225.72082359826595</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="5"/>
+        <v>0.17417932121905186</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="6"/>
+        <v>0.18316508424202668</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="7"/>
+        <v>0.17542877612481303</v>
       </c>
       <c r="Y21">
-        <v>3662126.186642797</v>
+        <v>0.28617240686173667</v>
       </c>
       <c r="Z21">
-        <v>3640663.221635422</v>
+        <v>0.30299259257257788</v>
       </c>
       <c r="AA21">
-        <v>3657515.961222999</v>
-      </c>
-      <c r="AC21">
+        <v>0.29036017734846309</v>
+      </c>
+      <c r="AG21">
+        <v>3662126.1866427972</v>
+      </c>
+      <c r="AH21">
+        <v>3640663.2216354222</v>
+      </c>
+      <c r="AI21">
+        <v>3657515.9612229988</v>
+      </c>
+      <c r="AK21">
         <v>1047999.465062963</v>
       </c>
-      <c r="AD21">
+      <c r="AL21">
         <v>1103093.98820695</v>
       </c>
-      <c r="AE21">
-        <v>1061996.983155545</v>
-      </c>
-      <c r="BJ21">
+      <c r="AM21">
+        <v>1061996.9831555451</v>
+      </c>
+      <c r="BR21">
         <v>823800</v>
       </c>
-      <c r="BK21">
-        <v>0</v>
-      </c>
-      <c r="BL21">
-        <v>0</v>
-      </c>
-      <c r="BN21">
-        <v>693044.3269800651</v>
-      </c>
-      <c r="BO21">
-        <v>671581.3619726835</v>
-      </c>
-      <c r="BP21">
-        <v>688434.1015602652</v>
+      <c r="BS21">
+        <v>0</v>
+      </c>
+      <c r="BT21">
+        <v>0</v>
+      </c>
+      <c r="BV21">
+        <v>693044.32698006509</v>
+      </c>
+      <c r="BW21">
+        <v>671581.36197268346</v>
+      </c>
+      <c r="BX21">
+        <v>688434.10156026518</v>
       </c>
     </row>
-    <row r="22" spans="1:68">
+    <row r="22" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>1750.314324865354</v>
+        <v>1750.3143248653539</v>
       </c>
       <c r="B22">
-        <v>1733.374319018911</v>
+        <v>1733.3743190189109</v>
       </c>
       <c r="C22">
         <v>1746.056383497727</v>
       </c>
       <c r="E22">
-        <v>1456.052446988795</v>
+        <v>1456.0524469887951</v>
       </c>
       <c r="F22">
-        <v>1427.639324180759</v>
+        <v>1427.6393241807591</v>
       </c>
       <c r="G22">
         <v>1456.536087098588</v>
       </c>
-      <c r="Q22">
-        <v>0.2724136797991262</v>
-      </c>
-      <c r="R22">
-        <v>0.28889513915274</v>
-      </c>
-      <c r="S22">
-        <v>0.2714529228680244</v>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>294.26187787655886</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="3"/>
+        <v>305.73499483815181</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="4"/>
+        <v>289.52029639913894</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="5"/>
+        <v>0.16811944785928407</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="6"/>
+        <v>0.17638140330312363</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="7"/>
+        <v>0.16581383003174699</v>
       </c>
       <c r="Y22">
+        <v>0.27241367979912617</v>
+      </c>
+      <c r="Z22">
+        <v>0.28889513915274001</v>
+      </c>
+      <c r="AA22">
+        <v>0.27145292286802442</v>
+      </c>
+      <c r="AG22">
         <v>5004943.163306104</v>
       </c>
-      <c r="Z22">
-        <v>4954012.272625273</v>
-      </c>
-      <c r="AA22">
-        <v>4994003.254174767</v>
-      </c>
-      <c r="AC22">
-        <v>1363414.984301695</v>
-      </c>
-      <c r="AD22">
-        <v>1431190.06486446</v>
-      </c>
-      <c r="AE22">
-        <v>1355636.780158166</v>
-      </c>
-      <c r="BJ22">
+      <c r="AH22">
+        <v>4954012.2726252731</v>
+      </c>
+      <c r="AI22">
+        <v>4994003.2541747671</v>
+      </c>
+      <c r="AK22">
+        <v>1363414.9843016949</v>
+      </c>
+      <c r="AL22">
+        <v>1431190.0648644599</v>
+      </c>
+      <c r="AM22">
+        <v>1355636.7801581661</v>
+      </c>
+      <c r="BR22">
         <v>1511950</v>
       </c>
-      <c r="BK22">
-        <v>0</v>
-      </c>
-      <c r="BL22">
-        <v>0</v>
-      </c>
-      <c r="BN22">
-        <v>1644570.768402958</v>
-      </c>
-      <c r="BO22">
+      <c r="BS22">
+        <v>0</v>
+      </c>
+      <c r="BT22">
+        <v>0</v>
+      </c>
+      <c r="BV22">
+        <v>1644570.7684029581</v>
+      </c>
+      <c r="BW22">
         <v>1593639.877722136</v>
       </c>
-      <c r="BP22">
+      <c r="BX22">
         <v>1633630.859271629</v>
       </c>
     </row>
-    <row r="23" spans="1:68">
+    <row r="23" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1300.184372713677</v>
       </c>
@@ -2368,61 +2887,85 @@
         <v>1297.236904410423</v>
       </c>
       <c r="E23">
-        <v>1092.698786944945</v>
+        <v>1092.6987869449449</v>
       </c>
       <c r="F23">
-        <v>1072.207519110855</v>
+        <v>1072.2075191108549</v>
       </c>
       <c r="G23">
-        <v>1089.542000250134</v>
-      </c>
-      <c r="Q23">
-        <v>0.2734137087157071</v>
-      </c>
-      <c r="R23">
-        <v>0.2870296914546265</v>
-      </c>
-      <c r="S23">
-        <v>0.2753003933247846</v>
+        <v>1089.5420002501339</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>207.48558576873211</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="3"/>
+        <v>214.97458655095807</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="4"/>
+        <v>207.69490416028907</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="5"/>
+        <v>0.15958166404944479</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="6"/>
+        <v>0.16701178924518026</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="7"/>
+        <v>0.16010560866265491</v>
       </c>
       <c r="Y23">
-        <v>3759447.933829014</v>
+        <v>0.27341370871570708</v>
       </c>
       <c r="Z23">
-        <v>3721303.49038662</v>
+        <v>0.28702969145462648</v>
       </c>
       <c r="AA23">
-        <v>3751254.541969047</v>
-      </c>
-      <c r="AC23">
+        <v>0.27530039332478462</v>
+      </c>
+      <c r="AG23">
+        <v>3759447.9338290142</v>
+      </c>
+      <c r="AH23">
+        <v>3721303.4903866202</v>
+      </c>
+      <c r="AI23">
+        <v>3751254.5419690469</v>
+      </c>
+      <c r="AK23">
         <v>1027884.602311793</v>
       </c>
-      <c r="AD23">
+      <c r="AL23">
         <v>1068124.592654696</v>
       </c>
-      <c r="AE23">
+      <c r="AM23">
         <v>1032721.850865463</v>
       </c>
-      <c r="BJ23">
+      <c r="BR23">
         <v>812400</v>
       </c>
-      <c r="BK23">
-        <v>0</v>
-      </c>
-      <c r="BL23">
-        <v>0</v>
-      </c>
-      <c r="BN23">
+      <c r="BS23">
+        <v>0</v>
+      </c>
+      <c r="BT23">
+        <v>0</v>
+      </c>
+      <c r="BV23">
         <v>1231693.297010852</v>
       </c>
-      <c r="BO23">
-        <v>1193548.853568447</v>
-      </c>
-      <c r="BP23">
-        <v>1223499.905150887</v>
+      <c r="BW23">
+        <v>1193548.8535684471</v>
+      </c>
+      <c r="BX23">
+        <v>1223499.9051508871</v>
       </c>
     </row>
-    <row r="24" spans="1:68">
+    <row r="24" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1259.366381361059</v>
       </c>
@@ -2430,69 +2973,93 @@
         <v>1248.790593723797</v>
       </c>
       <c r="C24">
-        <v>1256.968968762278</v>
+        <v>1256.9689687622781</v>
       </c>
       <c r="E24">
-        <v>1035.364622391803</v>
+        <v>1035.3646223918031</v>
       </c>
       <c r="F24">
-        <v>1010.419311800005</v>
+        <v>1010.4193118000049</v>
       </c>
       <c r="G24">
-        <v>1027.142385209908</v>
-      </c>
-      <c r="Q24">
-        <v>0.3060720015551059</v>
-      </c>
-      <c r="R24">
+        <v>1027.1423852099081</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>224.00175896925589</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="3"/>
+        <v>238.37128192379203</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="4"/>
+        <v>229.82658355237004</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="5"/>
+        <v>0.17786861892181544</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="6"/>
+        <v>0.19088170836792365</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="7"/>
+        <v>0.1828418912987784</v>
+      </c>
+      <c r="Y24">
+        <v>0.30607200155510589</v>
+      </c>
+      <c r="Z24">
         <v>0.329836929193351</v>
       </c>
-      <c r="S24">
-        <v>0.3157586698760242</v>
-      </c>
-      <c r="Y24">
+      <c r="AA24">
+        <v>0.31575866987602419</v>
+      </c>
+      <c r="AG24">
         <v>3620552.507682418</v>
       </c>
-      <c r="Z24">
-        <v>3589526.569530329</v>
-      </c>
-      <c r="AA24">
-        <v>3613888.164303359</v>
-      </c>
-      <c r="AC24">
-        <v>1108149.752761715</v>
-      </c>
-      <c r="AD24">
+      <c r="AH24">
+        <v>3589526.5695303292</v>
+      </c>
+      <c r="AI24">
+        <v>3613888.1643033591</v>
+      </c>
+      <c r="AK24">
+        <v>1108149.7527617151</v>
+      </c>
+      <c r="AL24">
         <v>1183958.420951827</v>
       </c>
-      <c r="AE24">
+      <c r="AM24">
         <v>1141116.519841135</v>
       </c>
-      <c r="BJ24">
+      <c r="BR24">
         <v>1521300</v>
       </c>
-      <c r="BK24">
-        <v>0</v>
-      </c>
-      <c r="BL24">
-        <v>0</v>
-      </c>
-      <c r="BN24">
+      <c r="BS24">
+        <v>0</v>
+      </c>
+      <c r="BT24">
+        <v>0</v>
+      </c>
+      <c r="BV24">
         <v>1001835.040878427</v>
       </c>
-      <c r="BO24">
+      <c r="BW24">
         <v>970809.1027263382</v>
       </c>
-      <c r="BP24">
-        <v>995170.6974993675</v>
+      <c r="BX24">
+        <v>995170.69749936752</v>
       </c>
     </row>
-    <row r="25" spans="1:68">
+    <row r="25" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1806.962463457432</v>
       </c>
       <c r="B25">
-        <v>1794.848459876992</v>
+        <v>1794.8484598769919</v>
       </c>
       <c r="C25">
         <v>1803.997128904007</v>
@@ -2506,53 +3073,77 @@
       <c r="G25">
         <v>1504.831387373081</v>
       </c>
-      <c r="Q25">
-        <v>0.278391381314851</v>
-      </c>
-      <c r="R25">
-        <v>0.3022210396954734</v>
-      </c>
-      <c r="S25">
-        <v>0.2896183689795085</v>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>291.98786326510003</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="3"/>
+        <v>310.87809571222988</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="4"/>
+        <v>299.16574153092597</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="5"/>
+        <v>0.16159044206508422</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="6"/>
+        <v>0.17320576230348472</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="7"/>
+        <v>0.16583493218344528</v>
       </c>
       <c r="Y25">
+        <v>0.27839138131485103</v>
+      </c>
+      <c r="Z25">
+        <v>0.30222103969547343</v>
+      </c>
+      <c r="AA25">
+        <v>0.28961836897950849</v>
+      </c>
+      <c r="AG25">
         <v>5471002.201136766</v>
       </c>
-      <c r="Z25">
+      <c r="AH25">
         <v>5432589.134853228</v>
       </c>
-      <c r="AA25">
-        <v>5462751.109334122</v>
-      </c>
-      <c r="AC25">
-        <v>1523079.859951055</v>
-      </c>
-      <c r="AD25">
-        <v>1641842.736573675</v>
-      </c>
-      <c r="AE25">
-        <v>1582113.066426349</v>
-      </c>
-      <c r="BJ25">
+      <c r="AI25">
+        <v>5462751.1093341224</v>
+      </c>
+      <c r="AK25">
+        <v>1523079.8599510549</v>
+      </c>
+      <c r="AL25">
+        <v>1641842.7365736749</v>
+      </c>
+      <c r="AM25">
+        <v>1582113.0664263491</v>
+      </c>
+      <c r="BR25">
         <v>2034750</v>
       </c>
-      <c r="BK25">
-        <v>0</v>
-      </c>
-      <c r="BL25">
-        <v>0</v>
-      </c>
-      <c r="BN25">
-        <v>1240367.193468593</v>
-      </c>
-      <c r="BO25">
+      <c r="BS25">
+        <v>0</v>
+      </c>
+      <c r="BT25">
+        <v>0</v>
+      </c>
+      <c r="BV25">
+        <v>1240367.1934685931</v>
+      </c>
+      <c r="BW25">
         <v>1201954.127185056</v>
       </c>
-      <c r="BP25">
+      <c r="BX25">
         <v>1232116.101665946</v>
       </c>
     </row>
-    <row r="26" spans="1:68">
+    <row r="26" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1530.90714610074</v>
       </c>
@@ -2560,61 +3151,129 @@
         <v>1514.896330179761</v>
       </c>
       <c r="C26">
-        <v>1526.987927704973</v>
+        <v>1526.9879277049729</v>
       </c>
       <c r="E26">
-        <v>1281.550682180843</v>
+        <v>1281.5506821808431</v>
       </c>
       <c r="F26">
-        <v>1257.511385514313</v>
+        <v>1257.5113855143129</v>
       </c>
       <c r="G26">
-        <v>1280.674335045689</v>
-      </c>
-      <c r="Q26">
-        <v>0.280972915517697</v>
-      </c>
-      <c r="R26">
-        <v>0.295329415221106</v>
-      </c>
-      <c r="S26">
-        <v>0.2809105687716276</v>
+        <v>1280.6743350456891</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>249.3564639198969</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="3"/>
+        <v>257.38494466544807</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="4"/>
+        <v>246.31359265928381</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="5"/>
+        <v>0.16288150757870212</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="6"/>
+        <v>0.16990267884199456</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="7"/>
+        <v>0.16130683693713765</v>
       </c>
       <c r="Y26">
-        <v>4645664.336582158</v>
+        <v>0.28097291551769699</v>
       </c>
       <c r="Z26">
-        <v>4594894.619606013</v>
+        <v>0.29532941522110601</v>
       </c>
       <c r="AA26">
-        <v>4634759.047416426</v>
-      </c>
-      <c r="AC26">
-        <v>1305305.853166077</v>
-      </c>
-      <c r="AD26">
-        <v>1357007.54101085</v>
-      </c>
-      <c r="AE26">
+        <v>0.28091056877162762</v>
+      </c>
+      <c r="AG26">
+        <v>4645664.3365821578</v>
+      </c>
+      <c r="AH26">
+        <v>4594894.6196060134</v>
+      </c>
+      <c r="AI26">
+        <v>4634759.0474164262</v>
+      </c>
+      <c r="AK26">
+        <v>1305305.8531660771</v>
+      </c>
+      <c r="AL26">
+        <v>1357007.5410108501</v>
+      </c>
+      <c r="AM26">
         <v>1301952.800129195</v>
       </c>
-      <c r="BJ26">
+      <c r="BR26">
         <v>1493800</v>
       </c>
-      <c r="BK26">
-        <v>0</v>
-      </c>
-      <c r="BL26">
-        <v>0</v>
-      </c>
-      <c r="BN26">
-        <v>1639366.430528589</v>
-      </c>
-      <c r="BO26">
-        <v>1588596.713552422</v>
-      </c>
-      <c r="BP26">
+      <c r="BS26">
+        <v>0</v>
+      </c>
+      <c r="BT26">
+        <v>0</v>
+      </c>
+      <c r="BV26">
+        <v>1639366.4305285891</v>
+      </c>
+      <c r="BW26">
+        <v>1588596.7135524219</v>
+      </c>
+      <c r="BX26">
         <v>1628461.141362848</v>
+      </c>
+    </row>
+    <row r="30" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="I30">
+        <f>AVERAGE(I3:I26)</f>
+        <v>263.03442586943157</v>
+      </c>
+      <c r="J30">
+        <f t="shared" ref="J30:O30" si="8">AVERAGE(J3:J26)</f>
+        <v>274.38918138747141</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="8"/>
+        <v>262.4840635030755</v>
+      </c>
+      <c r="L30" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="8"/>
+        <v>0.15584697945594647</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="8"/>
+        <v>0.16436847704159555</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="8"/>
+        <v>0.15604426175367361</v>
+      </c>
+      <c r="Y30">
+        <f>AVERAGE(Y3:AA26)</f>
+        <v>0.26931223800274751</v>
+      </c>
+    </row>
+    <row r="33" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I33">
+        <f>AVERAGE(I30:K30)</f>
+        <v>266.63589025332618</v>
+      </c>
+      <c r="M33">
+        <f>AVERAGE(M30:O30)</f>
+        <v>0.15875323941707187</v>
       </c>
     </row>
   </sheetData>
